--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F12-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F12-Gp1ba.xlsx
@@ -543,10 +543,10 @@
         <v>0.410366</v>
       </c>
       <c r="I2">
-        <v>0.7145685504583961</v>
+        <v>0.7822470115268996</v>
       </c>
       <c r="J2">
-        <v>0.7145685504583961</v>
+        <v>0.7822470115268996</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.642196</v>
+        <v>3.704480666666667</v>
       </c>
       <c r="N2">
-        <v>7.926588000000001</v>
+        <v>11.113442</v>
       </c>
       <c r="O2">
-        <v>0.26568831615543</v>
+        <v>0.298964201395561</v>
       </c>
       <c r="P2">
-        <v>0.26568831615543</v>
+        <v>0.2989642013955609</v>
       </c>
       <c r="Q2">
-        <v>0.3614224679120001</v>
+        <v>0.5067309710857778</v>
       </c>
       <c r="R2">
-        <v>3.252802211208</v>
+        <v>4.560578739772</v>
       </c>
       <c r="S2">
-        <v>0.1898525149489177</v>
+        <v>0.2338638530952037</v>
       </c>
       <c r="T2">
-        <v>0.1898525149489177</v>
+        <v>0.2338638530952037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.410366</v>
       </c>
       <c r="I3">
-        <v>0.7145685504583961</v>
+        <v>0.7822470115268996</v>
       </c>
       <c r="J3">
-        <v>0.7145685504583961</v>
+        <v>0.7822470115268996</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>13.998014</v>
       </c>
       <c r="O3">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="P3">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="Q3">
         <v>0.6382565570137778</v>
@@ -635,10 +635,10 @@
         <v>5.744309013124001</v>
       </c>
       <c r="S3">
-        <v>0.335271388167287</v>
+        <v>0.2945648602584694</v>
       </c>
       <c r="T3">
-        <v>0.335271388167287</v>
+        <v>0.2945648602584694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.410366</v>
       </c>
       <c r="I4">
-        <v>0.7145685504583961</v>
+        <v>0.7822470115268996</v>
       </c>
       <c r="J4">
-        <v>0.7145685504583961</v>
+        <v>0.7822470115268996</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.521928</v>
+        <v>2.870093333333334</v>
       </c>
       <c r="N4">
-        <v>4.565784</v>
+        <v>8.610280000000001</v>
       </c>
       <c r="O4">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="P4">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="Q4">
-        <v>0.2081825018826667</v>
+        <v>0.3925962402755556</v>
       </c>
       <c r="R4">
-        <v>1.873642516944</v>
+        <v>3.533366162480001</v>
       </c>
       <c r="S4">
-        <v>0.1093567087268228</v>
+        <v>0.1811889833076531</v>
       </c>
       <c r="T4">
-        <v>0.1093567087268228</v>
+        <v>0.1811889833076531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.410366</v>
       </c>
       <c r="I5">
-        <v>0.7145685504583961</v>
+        <v>0.7822470115268996</v>
       </c>
       <c r="J5">
-        <v>0.7145685504583961</v>
+        <v>0.7822470115268996</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.114591666666667</v>
+        <v>1.150472333333333</v>
       </c>
       <c r="N5">
-        <v>3.343775</v>
+        <v>3.451417</v>
       </c>
       <c r="O5">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="P5">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="Q5">
-        <v>0.1524635079611111</v>
+        <v>0.1573715765135555</v>
       </c>
       <c r="R5">
-        <v>1.37217157165</v>
+        <v>1.416344188622</v>
       </c>
       <c r="S5">
-        <v>0.08008793861536859</v>
+        <v>0.07262931486557347</v>
       </c>
       <c r="T5">
-        <v>0.08008793861536857</v>
+        <v>0.07262931486557347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05463966666666667</v>
+        <v>0.03807766666666667</v>
       </c>
       <c r="H6">
-        <v>0.163919</v>
+        <v>0.114233</v>
       </c>
       <c r="I6">
-        <v>0.2854314495416039</v>
+        <v>0.2177529884731004</v>
       </c>
       <c r="J6">
-        <v>0.2854314495416039</v>
+        <v>0.2177529884731004</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.642196</v>
+        <v>3.704480666666667</v>
       </c>
       <c r="N6">
-        <v>7.926588000000001</v>
+        <v>11.113442</v>
       </c>
       <c r="O6">
-        <v>0.26568831615543</v>
+        <v>0.298964201395561</v>
       </c>
       <c r="P6">
-        <v>0.26568831615543</v>
+        <v>0.2989642013955609</v>
       </c>
       <c r="Q6">
-        <v>0.144368708708</v>
+        <v>0.1410579799984444</v>
       </c>
       <c r="R6">
-        <v>1.299318378372</v>
+        <v>1.269521819986</v>
       </c>
       <c r="S6">
-        <v>0.07583580120651234</v>
+        <v>0.06510034830035726</v>
       </c>
       <c r="T6">
-        <v>0.07583580120651233</v>
+        <v>0.06510034830035724</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05463966666666667</v>
+        <v>0.03807766666666667</v>
       </c>
       <c r="H7">
-        <v>0.163919</v>
+        <v>0.114233</v>
       </c>
       <c r="I7">
-        <v>0.2854314495416039</v>
+        <v>0.2177529884731004</v>
       </c>
       <c r="J7">
-        <v>0.2854314495416039</v>
+        <v>0.2177529884731004</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>13.998014</v>
       </c>
       <c r="O7">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="P7">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="Q7">
-        <v>0.2549489396517778</v>
+        <v>0.1776705703624445</v>
       </c>
       <c r="R7">
-        <v>2.294540456866</v>
+        <v>1.599035133262</v>
       </c>
       <c r="S7">
-        <v>0.1339227681557281</v>
+        <v>0.08199760136538051</v>
       </c>
       <c r="T7">
-        <v>0.1339227681557281</v>
+        <v>0.08199760136538051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.05463966666666667</v>
+        <v>0.03807766666666667</v>
       </c>
       <c r="H8">
-        <v>0.163919</v>
+        <v>0.114233</v>
       </c>
       <c r="I8">
-        <v>0.2854314495416039</v>
+        <v>0.2177529884731004</v>
       </c>
       <c r="J8">
-        <v>0.2854314495416039</v>
+        <v>0.2177529884731004</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.521928</v>
+        <v>2.870093333333334</v>
       </c>
       <c r="N8">
-        <v>4.565784</v>
+        <v>8.610280000000001</v>
       </c>
       <c r="O8">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="P8">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="Q8">
-        <v>0.08315763861066666</v>
+        <v>0.1092864572488889</v>
       </c>
       <c r="R8">
-        <v>0.748418747496</v>
+        <v>0.9835781152400002</v>
       </c>
       <c r="S8">
-        <v>0.04368208462151366</v>
+        <v>0.05043731968580032</v>
       </c>
       <c r="T8">
-        <v>0.04368208462151365</v>
+        <v>0.05043731968580032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.05463966666666667</v>
+        <v>0.03807766666666667</v>
       </c>
       <c r="H9">
-        <v>0.163919</v>
+        <v>0.114233</v>
       </c>
       <c r="I9">
-        <v>0.2854314495416039</v>
+        <v>0.2177529884731004</v>
       </c>
       <c r="J9">
-        <v>0.2854314495416039</v>
+        <v>0.2177529884731004</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.114591666666667</v>
+        <v>1.150472333333333</v>
       </c>
       <c r="N9">
-        <v>3.343775</v>
+        <v>3.451417</v>
       </c>
       <c r="O9">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="P9">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="Q9">
-        <v>0.06090091713611111</v>
+        <v>0.04380730201788889</v>
       </c>
       <c r="R9">
-        <v>0.548108254225</v>
+        <v>0.394265718161</v>
       </c>
       <c r="S9">
-        <v>0.03199079555784983</v>
+        <v>0.02021771912156235</v>
       </c>
       <c r="T9">
-        <v>0.03199079555784982</v>
+        <v>0.02021771912156235</v>
       </c>
     </row>
   </sheetData>
